--- a/data/Task data.xlsx
+++ b/data/Task data.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Systematic\PR working files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\brc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42AEB2D7-2410-4A79-BC3E-E643D37958C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDD6940-7AD0-47D8-85DB-1F5E4DBB64E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$680</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="68">
   <si>
     <t>Trade table</t>
   </si>
@@ -218,17 +225,32 @@
   <si>
     <t>n.a.</t>
   </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>End of Day</t>
+  </si>
+  <si>
+    <t>Price Change</t>
+  </si>
+  <si>
+    <t>Multipler</t>
+  </si>
+  <si>
+    <t>P/L Daily</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +279,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +308,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -280,12 +323,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -325,13 +383,63 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{28DD045D-527C-444E-BA4A-7A6B0AF48D4C}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,6 +449,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFFE95E6-F715-495D-8CE5-4B4162A87CDF}" name="Table1" displayName="Table1" ref="B15:D70" totalsRowShown="0">
+  <autoFilter ref="B15:D70" xr:uid="{C73DA1CC-242D-44C5-AC91-5C7AE686086A}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2019" month="4" dateTimeGrouping="month"/>
+        <dateGroupItem year="2019" month="5" day="2" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="3" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="7" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="8" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="10" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="16" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="17" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="21" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{278B7C3D-1545-4B6F-863A-A05CBB5D5922}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4441CD24-E3DC-48CC-AC5A-F9E5EFD8D809}" name="Contract Ticker"/>
+    <tableColumn id="3" xr3:uid="{E80EAB2C-389B-459E-AB26-36225F90F9F6}" name="price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,31 +740,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BB680"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:M17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="32" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="9.5703125" customWidth="1"/>
     <col min="33" max="49" width="9.5703125" style="5" customWidth="1"/>
     <col min="51" max="54" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -644,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="63.75" customHeight="1">
+    <row r="2" spans="1:54" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -763,17 +901,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
-      <c r="A3" s="9">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>43585</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="19">
         <v>-3</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="20">
         <v>2359</v>
       </c>
       <c r="F3" s="2">
@@ -881,7 +1019,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43585</v>
       </c>
@@ -999,7 +1137,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43585</v>
       </c>
@@ -1117,7 +1255,7 @@
         <v>32.777999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43585</v>
       </c>
@@ -1235,7 +1373,7 @@
         <v>32.72</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43585</v>
       </c>
@@ -1353,7 +1491,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43585</v>
       </c>
@@ -1471,7 +1609,7 @@
         <v>32.784999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43585</v>
       </c>
@@ -1589,7 +1727,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43585</v>
       </c>
@@ -1707,7 +1845,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>43586</v>
       </c>
@@ -1813,7 +1951,7 @@
         <v>32.685000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>43586</v>
       </c>
@@ -1920,7 +2058,7 @@
         <v>32.661999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>43586</v>
       </c>
@@ -2026,7 +2164,7 @@
         <v>32.58</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>43586</v>
       </c>
@@ -2132,7 +2270,7 @@
         <v>32.575000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43586</v>
       </c>
@@ -2238,7 +2376,7 @@
         <v>32.576999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>43586</v>
       </c>
@@ -2346,7 +2484,7 @@
         <v>32.557000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43587</v>
       </c>
@@ -2361,16 +2499,16 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
-      <c r="K17" t="s">
+      <c r="K17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="22">
         <v>124</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="21">
         <v>10</v>
       </c>
       <c r="P17" s="10">
@@ -2454,7 +2592,7 @@
         <v>32.548000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>43587</v>
       </c>
@@ -2562,7 +2700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>43587</v>
       </c>
@@ -2659,7 +2797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>43587</v>
       </c>
@@ -2756,7 +2894,7 @@
         <v>32.256999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>43587</v>
       </c>
@@ -2853,7 +2991,7 @@
         <v>32.17</v>
       </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>43587</v>
       </c>
@@ -2950,7 +3088,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>43588</v>
       </c>
@@ -3047,7 +3185,7 @@
         <v>32.005000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>43588</v>
       </c>
@@ -3144,7 +3282,7 @@
         <v>32.08</v>
       </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43588</v>
       </c>
@@ -3241,7 +3379,7 @@
         <v>32.020000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>43588</v>
       </c>
@@ -3338,7 +3476,7 @@
         <v>31.925000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>43588</v>
       </c>
@@ -3435,7 +3573,7 @@
         <v>31.914999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>43591</v>
       </c>
@@ -3532,7 +3670,7 @@
         <v>31.965</v>
       </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>43591</v>
       </c>
@@ -3629,7 +3767,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>43591</v>
       </c>
@@ -3726,7 +3864,7 @@
         <v>31.698</v>
       </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>43591</v>
       </c>
@@ -3823,7 +3961,7 @@
         <v>31.733000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>43591</v>
       </c>
@@ -3920,7 +4058,7 @@
         <v>31.704999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43592</v>
       </c>
@@ -4015,7 +4153,7 @@
         <v>31.783000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>43592</v>
       </c>
@@ -4110,7 +4248,7 @@
         <v>31.815000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>43592</v>
       </c>
@@ -4205,7 +4343,7 @@
         <v>31.736999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>43592</v>
       </c>
@@ -4299,7 +4437,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>43592</v>
       </c>
@@ -4393,7 +4531,7 @@
         <v>31.658000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>43592</v>
       </c>
@@ -4487,7 +4625,7 @@
         <v>31.545000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>43592</v>
       </c>
@@ -4581,7 +4719,7 @@
         <v>31.527999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>43593</v>
       </c>
@@ -4675,7 +4813,7 @@
         <v>31.395</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>43593</v>
       </c>
@@ -4769,7 +4907,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>43593</v>
       </c>
@@ -4863,7 +5001,7 @@
         <v>31.29</v>
       </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>43593</v>
       </c>
@@ -4957,7 +5095,7 @@
         <v>31.32</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>43593</v>
       </c>
@@ -5051,7 +5189,7 @@
         <v>31.295000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:54">
+    <row r="45" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43593</v>
       </c>
@@ -5145,7 +5283,7 @@
         <v>31.225000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>43593</v>
       </c>
@@ -5239,7 +5377,7 @@
         <v>31.26</v>
       </c>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>43593</v>
       </c>
@@ -5333,7 +5471,7 @@
         <v>31.475000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>43594</v>
       </c>
@@ -5427,7 +5565,7 @@
         <v>31.376999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>43594</v>
       </c>
@@ -5521,7 +5659,7 @@
         <v>31.34</v>
       </c>
     </row>
-    <row r="50" spans="1:54">
+    <row r="50" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>43594</v>
       </c>
@@ -5615,7 +5753,7 @@
         <v>31.324999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>43595</v>
       </c>
@@ -5709,7 +5847,7 @@
         <v>31.364999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:54">
+    <row r="52" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>43595</v>
       </c>
@@ -5803,7 +5941,7 @@
         <v>31.277999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:54">
+    <row r="53" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>43595</v>
       </c>
@@ -5897,7 +6035,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="54" spans="1:54">
+    <row r="54" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>43595</v>
       </c>
@@ -5991,7 +6129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:54">
+    <row r="55" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>43595</v>
       </c>
@@ -6085,7 +6223,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="56" spans="1:54">
+    <row r="56" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>43595</v>
       </c>
@@ -6179,7 +6317,7 @@
         <v>31.195</v>
       </c>
     </row>
-    <row r="57" spans="1:54">
+    <row r="57" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>43595</v>
       </c>
@@ -6273,7 +6411,7 @@
         <v>31.33</v>
       </c>
     </row>
-    <row r="58" spans="1:54">
+    <row r="58" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>43595</v>
       </c>
@@ -6333,7 +6471,7 @@
         <v>31.295000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:54">
+    <row r="59" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>43598</v>
       </c>
@@ -6393,7 +6531,7 @@
         <v>31.306999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:54">
+    <row r="60" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>43598</v>
       </c>
@@ -6453,7 +6591,7 @@
         <v>31.385000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>43598</v>
       </c>
@@ -6513,7 +6651,7 @@
         <v>31.515000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:54">
+    <row r="62" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>43598</v>
       </c>
@@ -6573,7 +6711,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="63" spans="1:54">
+    <row r="63" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>43598</v>
       </c>
@@ -6633,7 +6771,7 @@
         <v>31.844999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:54">
+    <row r="64" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>43598</v>
       </c>
@@ -6693,7 +6831,7 @@
         <v>31.757000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:54">
+    <row r="65" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>43599</v>
       </c>
@@ -6753,7 +6891,7 @@
         <v>31.847000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:54">
+    <row r="66" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>43599</v>
       </c>
@@ -6813,7 +6951,7 @@
         <v>31.79</v>
       </c>
     </row>
-    <row r="67" spans="1:54">
+    <row r="67" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>43599</v>
       </c>
@@ -6873,7 +7011,7 @@
         <v>31.763000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:54">
+    <row r="68" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>43599</v>
       </c>
@@ -6933,7 +7071,7 @@
         <v>31.734999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:54">
+    <row r="69" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>43599</v>
       </c>
@@ -6993,7 +7131,7 @@
         <v>31.641999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:54">
+    <row r="70" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>43599</v>
       </c>
@@ -7053,7 +7191,7 @@
         <v>31.617999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:54">
+    <row r="71" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>43599</v>
       </c>
@@ -7113,7 +7251,7 @@
         <v>31.734999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:54">
+    <row r="72" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>43600</v>
       </c>
@@ -7173,7 +7311,7 @@
         <v>31.684999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:54">
+    <row r="73" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>43600</v>
       </c>
@@ -7233,7 +7371,7 @@
         <v>31.693000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:54">
+    <row r="74" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>43600</v>
       </c>
@@ -7293,7 +7431,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="75" spans="1:54">
+    <row r="75" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>43600</v>
       </c>
@@ -7353,7 +7491,7 @@
         <v>31.745000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:54">
+    <row r="76" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>43600</v>
       </c>
@@ -7413,7 +7551,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="77" spans="1:54">
+    <row r="77" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>43601</v>
       </c>
@@ -7473,7 +7611,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="78" spans="1:54">
+    <row r="78" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>43601</v>
       </c>
@@ -7533,7 +7671,7 @@
         <v>31.597000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:54">
+    <row r="79" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>43601</v>
       </c>
@@ -7593,7 +7731,7 @@
         <v>31.658000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:54">
+    <row r="80" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>43601</v>
       </c>
@@ -7653,7 +7791,7 @@
         <v>31.774999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:54">
+    <row r="81" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>43602</v>
       </c>
@@ -7713,7 +7851,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="82" spans="1:54">
+    <row r="82" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>43602</v>
       </c>
@@ -7773,7 +7911,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="83" spans="1:54">
+    <row r="83" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>43602</v>
       </c>
@@ -7833,7 +7971,7 @@
         <v>31.71</v>
       </c>
     </row>
-    <row r="84" spans="1:54">
+    <row r="84" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>43602</v>
       </c>
@@ -7893,7 +8031,7 @@
         <v>31.765000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:54">
+    <row r="85" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>43602</v>
       </c>
@@ -7953,7 +8091,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="86" spans="1:54">
+    <row r="86" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>43602</v>
       </c>
@@ -8013,7 +8151,7 @@
         <v>31.777999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:54">
+    <row r="87" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>43605</v>
       </c>
@@ -8073,7 +8211,7 @@
         <v>31.872</v>
       </c>
     </row>
-    <row r="88" spans="1:54">
+    <row r="88" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>43605</v>
       </c>
@@ -8133,7 +8271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:54">
+    <row r="89" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>43605</v>
       </c>
@@ -8193,7 +8331,7 @@
         <v>31.792000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:54">
+    <row r="90" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>43606</v>
       </c>
@@ -8253,7 +8391,7 @@
         <v>31.774999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:54">
+    <row r="91" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>43606</v>
       </c>
@@ -8313,7 +8451,7 @@
         <v>31.79</v>
       </c>
     </row>
-    <row r="92" spans="1:54">
+    <row r="92" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>43606</v>
       </c>
@@ -8373,7 +8511,7 @@
         <v>31.763000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:54">
+    <row r="93" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>43606</v>
       </c>
@@ -8433,7 +8571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:54">
+    <row r="94" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>43606</v>
       </c>
@@ -8493,7 +8631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:54">
+    <row r="95" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>43606</v>
       </c>
@@ -8553,7 +8691,7 @@
         <v>31.765000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:54">
+    <row r="96" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>43606</v>
       </c>
@@ -8613,7 +8751,7 @@
         <v>31.824999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:54">
+    <row r="97" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>43607</v>
       </c>
@@ -8673,7 +8811,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="98" spans="1:54">
+    <row r="98" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>43607</v>
       </c>
@@ -8733,7 +8871,7 @@
         <v>31.87</v>
       </c>
     </row>
-    <row r="99" spans="1:54">
+    <row r="99" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>43607</v>
       </c>
@@ -8793,7 +8931,7 @@
         <v>31.94</v>
       </c>
     </row>
-    <row r="100" spans="1:54">
+    <row r="100" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>43607</v>
       </c>
@@ -8853,7 +8991,7 @@
         <v>31.995000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:54">
+    <row r="101" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>43607</v>
       </c>
@@ -8913,7 +9051,7 @@
         <v>32.104999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:54">
+    <row r="102" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>43607</v>
       </c>
@@ -8973,7 +9111,7 @@
         <v>31.975000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:54">
+    <row r="103" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>43607</v>
       </c>
@@ -9033,7 +9171,7 @@
         <v>31.931999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:54">
+    <row r="104" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>43608</v>
       </c>
@@ -9093,7 +9231,7 @@
         <v>31.925000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:54">
+    <row r="105" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>43608</v>
       </c>
@@ -9153,7 +9291,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:54">
+    <row r="106" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>43608</v>
       </c>
@@ -9213,7 +9351,7 @@
         <v>32.006999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:54">
+    <row r="107" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>43608</v>
       </c>
@@ -9273,7 +9411,7 @@
         <v>32.034999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:54">
+    <row r="108" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>43608</v>
       </c>
@@ -9333,7 +9471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:54">
+    <row r="109" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>43608</v>
       </c>
@@ -9393,7 +9531,7 @@
         <v>31.896999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:54">
+    <row r="110" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>43609</v>
       </c>
@@ -9453,7 +9591,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="111" spans="1:54">
+    <row r="111" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>43609</v>
       </c>
@@ -9513,7 +9651,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="112" spans="1:54">
+    <row r="112" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>43609</v>
       </c>
@@ -9573,7 +9711,7 @@
         <v>31.591999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:54">
+    <row r="113" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>43609</v>
       </c>
@@ -9633,7 +9771,7 @@
         <v>31.664999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:54">
+    <row r="114" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>43609</v>
       </c>
@@ -9693,7 +9831,7 @@
         <v>31.507000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:54">
+    <row r="115" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>43609</v>
       </c>
@@ -9753,7 +9891,7 @@
         <v>31.605</v>
       </c>
     </row>
-    <row r="116" spans="1:54">
+    <row r="116" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>43609</v>
       </c>
@@ -9813,7 +9951,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="117" spans="1:54">
+    <row r="117" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>43609</v>
       </c>
@@ -9873,7 +10011,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="118" spans="1:54">
+    <row r="118" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>43609</v>
       </c>
@@ -9933,7 +10071,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:54">
+    <row r="119" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>43609</v>
       </c>
@@ -9993,7 +10131,7 @@
         <v>31.914999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:54">
+    <row r="120" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>43609</v>
       </c>
@@ -10053,7 +10191,7 @@
         <v>31.94</v>
       </c>
     </row>
-    <row r="121" spans="1:54">
+    <row r="121" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>43609</v>
       </c>
@@ -10113,7 +10251,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="122" spans="1:54">
+    <row r="122" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>43613</v>
       </c>
@@ -10173,7 +10311,7 @@
         <v>31.853000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:54">
+    <row r="123" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>43613</v>
       </c>
@@ -10233,7 +10371,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="124" spans="1:54">
+    <row r="124" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>43613</v>
       </c>
@@ -10293,7 +10431,7 @@
         <v>31.855</v>
       </c>
     </row>
-    <row r="125" spans="1:54">
+    <row r="125" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>43613</v>
       </c>
@@ -10353,7 +10491,7 @@
         <v>31.812999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:54">
+    <row r="126" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>43613</v>
       </c>
@@ -10413,7 +10551,7 @@
         <v>31.798000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:54">
+    <row r="127" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>43613</v>
       </c>
@@ -10473,7 +10611,7 @@
         <v>31.645</v>
       </c>
     </row>
-    <row r="128" spans="1:54">
+    <row r="128" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>43614</v>
       </c>
@@ -10533,7 +10671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:54">
+    <row r="129" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>43614</v>
       </c>
@@ -10593,7 +10731,7 @@
         <v>31.327000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:54">
+    <row r="130" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>43614</v>
       </c>
@@ -10653,7 +10791,7 @@
         <v>31.34</v>
       </c>
     </row>
-    <row r="131" spans="1:54">
+    <row r="131" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>43614</v>
       </c>
@@ -10713,7 +10851,7 @@
         <v>31.335000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:54">
+    <row r="132" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>43614</v>
       </c>
@@ -10773,7 +10911,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="133" spans="1:54">
+    <row r="133" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>43614</v>
       </c>
@@ -10833,7 +10971,7 @@
         <v>31.34</v>
       </c>
     </row>
-    <row r="134" spans="1:54">
+    <row r="134" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>43615</v>
       </c>
@@ -10893,7 +11031,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="135" spans="1:54">
+    <row r="135" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>43615</v>
       </c>
@@ -10953,7 +11091,7 @@
         <v>31.233000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:54">
+    <row r="136" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>43615</v>
       </c>
@@ -11013,7 +11151,7 @@
         <v>31.234000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:54">
+    <row r="137" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>43615</v>
       </c>
@@ -11073,7 +11211,7 @@
         <v>31.145</v>
       </c>
     </row>
-    <row r="138" spans="1:54">
+    <row r="138" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>43615</v>
       </c>
@@ -11133,7 +11271,7 @@
         <v>31.312999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:54">
+    <row r="139" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>43615</v>
       </c>
@@ -11193,7 +11331,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="140" spans="1:54">
+    <row r="140" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>43616</v>
       </c>
@@ -11253,7 +11391,7 @@
         <v>31.234999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:54">
+    <row r="141" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>43616</v>
       </c>
@@ -11313,7 +11451,7 @@
         <v>30.917000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:54">
+    <row r="142" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>43616</v>
       </c>
@@ -11373,7 +11511,7 @@
         <v>30.853000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:54">
+    <row r="143" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>43616</v>
       </c>
@@ -11433,7 +11571,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="144" spans="1:54">
+    <row r="144" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>43616</v>
       </c>
@@ -11493,7 +11631,7 @@
         <v>30.736999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:54">
+    <row r="145" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>43616</v>
       </c>
@@ -11553,7 +11691,7 @@
         <v>30.74</v>
       </c>
     </row>
-    <row r="146" spans="1:54">
+    <row r="146" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>43619</v>
       </c>
@@ -11613,7 +11751,7 @@
         <v>30.77</v>
       </c>
     </row>
-    <row r="147" spans="1:54">
+    <row r="147" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>43619</v>
       </c>
@@ -11673,7 +11811,7 @@
         <v>30.67</v>
       </c>
     </row>
-    <row r="148" spans="1:54">
+    <row r="148" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>43619</v>
       </c>
@@ -11687,7 +11825,7 @@
         <v>127.1875</v>
       </c>
     </row>
-    <row r="149" spans="1:54">
+    <row r="149" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>43619</v>
       </c>
@@ -11701,7 +11839,7 @@
         <v>154.46879999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:54">
+    <row r="150" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>43619</v>
       </c>
@@ -11715,7 +11853,7 @@
         <v>1466.3</v>
       </c>
     </row>
-    <row r="151" spans="1:54">
+    <row r="151" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>43619</v>
       </c>
@@ -11729,7 +11867,7 @@
         <v>2735.7917000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:54">
+    <row r="152" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>43620</v>
       </c>
@@ -11743,7 +11881,7 @@
         <v>2364.2143000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:54">
+    <row r="153" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>43620</v>
       </c>
@@ -11757,7 +11895,7 @@
         <v>74.743499999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:54">
+    <row r="154" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>43620</v>
       </c>
@@ -11771,7 +11909,7 @@
         <v>92.64</v>
       </c>
     </row>
-    <row r="155" spans="1:54">
+    <row r="155" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>43620</v>
       </c>
@@ -11785,7 +11923,7 @@
         <v>1008.6</v>
       </c>
     </row>
-    <row r="156" spans="1:54">
+    <row r="156" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>43621</v>
       </c>
@@ -11799,7 +11937,7 @@
         <v>74.564999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:54">
+    <row r="157" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>43621</v>
       </c>
@@ -11813,7 +11951,7 @@
         <v>153.28129999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:54">
+    <row r="158" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>43621</v>
       </c>
@@ -11827,7 +11965,7 @@
         <v>126.95310000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:54">
+    <row r="159" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>43621</v>
       </c>
@@ -11841,7 +11979,7 @@
         <v>1504.4</v>
       </c>
     </row>
-    <row r="160" spans="1:54">
+    <row r="160" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>43622</v>
       </c>
@@ -11855,7 +11993,7 @@
         <v>92.378799999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>43622</v>
       </c>
@@ -11869,7 +12007,7 @@
         <v>74.84</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>43622</v>
       </c>
@@ -11883,7 +12021,7 @@
         <v>1003.2</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>43622</v>
       </c>
@@ -11897,7 +12035,7 @@
         <v>2849.25</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>43623</v>
       </c>
@@ -11911,7 +12049,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>43623</v>
       </c>
@@ -11925,7 +12063,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>43626</v>
       </c>
@@ -11939,7 +12077,7 @@
         <v>2493.25</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>43626</v>
       </c>
@@ -11953,7 +12091,7 @@
         <v>92.271299999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>43626</v>
       </c>
@@ -11967,7 +12105,7 @@
         <v>75.374399999999994</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>43626</v>
       </c>
@@ -11981,7 +12119,7 @@
         <v>153.5625</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>43626</v>
       </c>
@@ -11995,7 +12133,7 @@
         <v>2889.75</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>43626</v>
       </c>
@@ -12009,7 +12147,7 @@
         <v>1021.5</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>43627</v>
       </c>
@@ -12023,7 +12161,7 @@
         <v>92.148953489999997</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>43627</v>
       </c>
@@ -12037,7 +12175,7 @@
         <v>92.783953490000002</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>43627</v>
       </c>
@@ -12051,7 +12189,7 @@
         <v>2529.9</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>43627</v>
       </c>
@@ -12065,7 +12203,7 @@
         <v>92.25</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>43627</v>
       </c>
@@ -12079,7 +12217,7 @@
         <v>126.7813</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>43627</v>
       </c>
@@ -12093,7 +12231,7 @@
         <v>153.625</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>43627</v>
       </c>
@@ -12107,7 +12245,7 @@
         <v>2886.75</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>43627</v>
       </c>
@@ -12121,7 +12259,7 @@
         <v>1518.6</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>43627</v>
       </c>
@@ -12135,7 +12273,7 @@
         <v>1032.4000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9">
         <v>43628</v>
       </c>
@@ -12149,7 +12287,7 @@
         <v>92.875</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>43628</v>
       </c>
@@ -12163,7 +12301,7 @@
         <v>1019.2</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9">
         <v>43629</v>
       </c>
@@ -12177,7 +12315,7 @@
         <v>75.189499999999995</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9">
         <v>43629</v>
       </c>
@@ -12191,7 +12329,7 @@
         <v>127.35939999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9">
         <v>43629</v>
       </c>
@@ -12205,7 +12343,7 @@
         <v>154.1875</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9">
         <v>43630</v>
       </c>
@@ -12219,7 +12357,7 @@
         <v>127.3125</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9">
         <v>43630</v>
       </c>
@@ -12233,7 +12371,7 @@
         <v>154.375</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
         <v>43630</v>
       </c>
@@ -12247,7 +12385,7 @@
         <v>1526.35</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
         <v>43633</v>
       </c>
@@ -12261,7 +12399,7 @@
         <v>2890.6</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
         <v>43633</v>
       </c>
@@ -12275,7 +12413,7 @@
         <v>2894.7</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>43633</v>
       </c>
@@ -12289,7 +12427,7 @@
         <v>1524.7</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>43633</v>
       </c>
@@ -12303,7 +12441,7 @@
         <v>1528.25</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
         <v>43633</v>
       </c>
@@ -12317,7 +12455,7 @@
         <v>74.673400000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>43633</v>
       </c>
@@ -12331,7 +12469,7 @@
         <v>92.715000000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>43633</v>
       </c>
@@ -12345,7 +12483,7 @@
         <v>154.65629999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9">
         <v>43633</v>
       </c>
@@ -12359,7 +12497,7 @@
         <v>1011.7333</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
         <v>43633</v>
       </c>
@@ -12373,7 +12511,7 @@
         <v>1534.3</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>43633</v>
       </c>
@@ -12387,7 +12525,7 @@
         <v>1006.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
         <v>43634</v>
       </c>
@@ -12401,7 +12539,7 @@
         <v>92.834999999999994</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
         <v>43634</v>
       </c>
@@ -12415,7 +12553,7 @@
         <v>155.125</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>43634</v>
       </c>
@@ -12429,7 +12567,7 @@
         <v>1553.75</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
         <v>43634</v>
       </c>
@@ -12443,7 +12581,7 @@
         <v>1031.7</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9">
         <v>43635</v>
       </c>
@@ -12457,7 +12595,7 @@
         <v>1041.06</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9">
         <v>43635</v>
       </c>
@@ -12471,7 +12609,7 @@
         <v>1559.4</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9">
         <v>43635</v>
       </c>
@@ -12485,7 +12623,7 @@
         <v>2935.25</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9">
         <v>43636</v>
       </c>
@@ -12499,7 +12637,7 @@
         <v>93.733900000000006</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
         <v>43636</v>
       </c>
@@ -12513,7 +12651,7 @@
         <v>75.910399999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
         <v>43636</v>
       </c>
@@ -12527,7 +12665,7 @@
         <v>128.04689999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
         <v>43636</v>
       </c>
@@ -12541,7 +12679,7 @@
         <v>2957.25</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>43636</v>
       </c>
@@ -12555,7 +12693,7 @@
         <v>1055.2</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9">
         <v>43636</v>
       </c>
@@ -12569,7 +12707,7 @@
         <v>1567.9</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9">
         <v>43637</v>
       </c>
@@ -12583,7 +12721,7 @@
         <v>2498.84</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
         <v>43637</v>
       </c>
@@ -12597,7 +12735,7 @@
         <v>93.681399999999996</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9">
         <v>43637</v>
       </c>
@@ -12611,7 +12749,7 @@
         <v>75.784099999999995</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
         <v>43637</v>
       </c>
@@ -12625,7 +12763,7 @@
         <v>154.71879999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>43637</v>
       </c>
@@ -12639,7 +12777,7 @@
         <v>127.54689999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
         <v>43637</v>
       </c>
@@ -12653,7 +12791,7 @@
         <v>1052.0999999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>43640</v>
       </c>
@@ -12667,7 +12805,7 @@
         <v>2515.8000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>43640</v>
       </c>
@@ -12681,7 +12819,7 @@
         <v>155.28129999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>43640</v>
       </c>
@@ -12695,7 +12833,7 @@
         <v>127.9375</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>43640</v>
       </c>
@@ -12709,7 +12847,7 @@
         <v>1535.2</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
         <v>43641</v>
       </c>
@@ -12723,7 +12861,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>43641</v>
       </c>
@@ -12737,7 +12875,7 @@
         <v>93.894999999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>43641</v>
       </c>
@@ -12751,7 +12889,7 @@
         <v>128.15629999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>43641</v>
       </c>
@@ -12765,7 +12903,7 @@
         <v>155.9375</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
         <v>43641</v>
       </c>
@@ -12779,7 +12917,7 @@
         <v>1528.15</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>43642</v>
       </c>
@@ -12793,7 +12931,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>43642</v>
       </c>
@@ -12807,7 +12945,7 @@
         <v>93.35</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>43642</v>
       </c>
@@ -12821,7 +12959,7 @@
         <v>76.344999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>43642</v>
       </c>
@@ -12835,7 +12973,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>43642</v>
       </c>
@@ -12849,7 +12987,7 @@
         <v>127.60939999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9">
         <v>43642</v>
       </c>
@@ -12863,7 +13001,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>43642</v>
       </c>
@@ -12877,7 +13015,7 @@
         <v>1523.1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>43642</v>
       </c>
@@ -12891,7 +13029,7 @@
         <v>1049.9000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>43643</v>
       </c>
@@ -12905,7 +13043,7 @@
         <v>93.337800000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
         <v>43643</v>
       </c>
@@ -12919,7 +13057,7 @@
         <v>76.452699999999993</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>43643</v>
       </c>
@@ -12933,7 +13071,7 @@
         <v>155.71879999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9">
         <v>43643</v>
       </c>
@@ -12947,7 +13085,7 @@
         <v>127.9375</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>43643</v>
       </c>
@@ -12961,7 +13099,7 @@
         <v>1055.7</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
         <v>43643</v>
       </c>
@@ -12975,7 +13113,7 @@
         <v>2930.75</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>43644</v>
       </c>
@@ -12989,7 +13127,7 @@
         <v>127.98439999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>43644</v>
       </c>
@@ -13003,7 +13141,7 @@
         <v>155.65629999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
         <v>43644</v>
       </c>
@@ -13017,7 +13155,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
         <v>43644</v>
       </c>
@@ -13031,7 +13169,7 @@
         <v>1566.6143</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>43644</v>
       </c>
@@ -13045,7 +13183,7 @@
         <v>2944.25</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
         <v>43647</v>
       </c>
@@ -13059,7 +13197,7 @@
         <v>92.736999999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
         <v>43647</v>
       </c>
@@ -13073,7 +13211,7 @@
         <v>1572.4</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>43648</v>
       </c>
@@ -13087,7 +13225,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
         <v>43648</v>
       </c>
@@ -13101,7 +13239,7 @@
         <v>76.439700000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
         <v>43648</v>
       </c>
@@ -13115,7 +13253,7 @@
         <v>93.212000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
         <v>43648</v>
       </c>
@@ -13129,7 +13267,7 @@
         <v>128.125</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
         <v>43648</v>
       </c>
@@ -13143,7 +13281,7 @@
         <v>156.125</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9">
         <v>43648</v>
       </c>
@@ -13157,7 +13295,7 @@
         <v>2971.5</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9">
         <v>43648</v>
       </c>
@@ -13171,7 +13309,7 @@
         <v>1064.4000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9">
         <v>43648</v>
       </c>
@@ -13185,7 +13323,7 @@
         <v>1559.6</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9">
         <v>43649</v>
       </c>
@@ -13199,7 +13337,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9">
         <v>43649</v>
       </c>
@@ -13213,7 +13351,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>43649</v>
       </c>
@@ -13227,7 +13365,7 @@
         <v>93.224800000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
         <v>43649</v>
       </c>
@@ -13241,7 +13379,7 @@
         <v>76.636899999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>43649</v>
       </c>
@@ -13255,7 +13393,7 @@
         <v>156.65629999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>43650</v>
       </c>
@@ -13269,7 +13407,7 @@
         <v>93.254999999999995</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
         <v>43650</v>
       </c>
@@ -13283,7 +13421,7 @@
         <v>76.704999999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
         <v>43650</v>
       </c>
@@ -13297,7 +13435,7 @@
         <v>128.29689999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
         <v>43650</v>
       </c>
@@ -13311,7 +13449,7 @@
         <v>156.8125</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
         <v>43654</v>
       </c>
@@ -13325,7 +13463,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
         <v>43654</v>
       </c>
@@ -13339,7 +13477,7 @@
         <v>92.496799999999993</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
         <v>43654</v>
       </c>
@@ -13353,7 +13491,7 @@
         <v>127.54689999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
         <v>43654</v>
       </c>
@@ -13367,7 +13505,7 @@
         <v>155.46879999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>43654</v>
       </c>
@@ -13381,7 +13519,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>43655</v>
       </c>
@@ -13395,7 +13533,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>43655</v>
       </c>
@@ -13409,7 +13547,7 @@
         <v>155.125</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>43655</v>
       </c>
@@ -13423,7 +13561,7 @@
         <v>127.32810000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
         <v>43655</v>
       </c>
@@ -13437,7 +13575,7 @@
         <v>1563.8</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9">
         <v>43655</v>
       </c>
@@ -13451,7 +13589,7 @@
         <v>2981.5</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9">
         <v>43656</v>
       </c>
@@ -13465,7 +13603,7 @@
         <v>76.566800000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9">
         <v>43656</v>
       </c>
@@ -13479,7 +13617,7 @@
         <v>154.5625</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9">
         <v>43656</v>
       </c>
@@ -13493,7 +13631,7 @@
         <v>2996.25</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
         <v>43657</v>
       </c>
@@ -13507,7 +13645,7 @@
         <v>76.575000000000003</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9">
         <v>43657</v>
       </c>
@@ -13521,7 +13659,7 @@
         <v>92.644999999999996</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9">
         <v>43657</v>
       </c>
@@ -13535,7 +13673,7 @@
         <v>127.04689999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9">
         <v>43657</v>
       </c>
@@ -13549,7 +13687,7 @@
         <v>1559.3</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9">
         <v>43658</v>
       </c>
@@ -13563,7 +13701,7 @@
         <v>153.5625</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9">
         <v>43658</v>
       </c>
@@ -13577,7 +13715,7 @@
         <v>127.07810000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9">
         <v>43658</v>
       </c>
@@ -13591,7 +13729,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9">
         <v>43661</v>
       </c>
@@ -13605,7 +13743,7 @@
         <v>93.112499999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9">
         <v>43661</v>
       </c>
@@ -13619,7 +13757,7 @@
         <v>76.727599999999995</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9">
         <v>43661</v>
       </c>
@@ -13633,7 +13771,7 @@
         <v>127.17189999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9">
         <v>43661</v>
       </c>
@@ -13647,7 +13785,7 @@
         <v>154.03129999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9">
         <v>43661</v>
       </c>
@@ -13661,7 +13799,7 @@
         <v>3017.5</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9">
         <v>43661</v>
       </c>
@@ -13675,2352 +13813,3438 @@
         <v>1563.25</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="1"/>
       <c r="C291" s="8"/>
       <c r="D291" s="3"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="1"/>
       <c r="C292" s="8"/>
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="1"/>
       <c r="C293" s="8"/>
       <c r="D293" s="3"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="1"/>
       <c r="C294" s="8"/>
       <c r="D294" s="3"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="1"/>
       <c r="C295" s="8"/>
       <c r="D295" s="3"/>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="1"/>
       <c r="C296" s="8"/>
       <c r="D296" s="3"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="1"/>
       <c r="C297" s="8"/>
       <c r="D297" s="3"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="1"/>
       <c r="C298" s="8"/>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="1"/>
       <c r="C299" s="8"/>
       <c r="D299" s="3"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="1"/>
       <c r="C300" s="8"/>
       <c r="D300" s="3"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="1"/>
       <c r="C301" s="8"/>
       <c r="D301" s="3"/>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="1"/>
       <c r="C302" s="8"/>
       <c r="D302" s="3"/>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="1"/>
       <c r="C303" s="8"/>
       <c r="D303" s="3"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="1"/>
       <c r="C304" s="8"/>
       <c r="D304" s="3"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="1"/>
       <c r="C305" s="8"/>
       <c r="D305" s="3"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="1"/>
       <c r="C306" s="8"/>
       <c r="D306" s="3"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="1"/>
       <c r="C307" s="8"/>
       <c r="D307" s="3"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="1"/>
       <c r="C308" s="8"/>
       <c r="D308" s="3"/>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="1"/>
       <c r="C309" s="8"/>
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="1"/>
       <c r="C310" s="8"/>
       <c r="D310" s="3"/>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="1"/>
       <c r="C311" s="8"/>
       <c r="D311" s="3"/>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
       <c r="B312" s="1"/>
       <c r="C312" s="8"/>
       <c r="D312" s="3"/>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
       <c r="B313" s="1"/>
       <c r="C313" s="8"/>
       <c r="D313" s="3"/>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="9"/>
       <c r="B314" s="1"/>
       <c r="C314" s="8"/>
       <c r="D314" s="3"/>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="1"/>
       <c r="C315" s="8"/>
       <c r="D315" s="3"/>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
       <c r="B316" s="1"/>
       <c r="C316" s="8"/>
       <c r="D316" s="3"/>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
       <c r="B317" s="1"/>
       <c r="C317" s="8"/>
       <c r="D317" s="3"/>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
       <c r="B318" s="1"/>
       <c r="C318" s="8"/>
       <c r="D318" s="3"/>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="1"/>
       <c r="C319" s="8"/>
       <c r="D319" s="3"/>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="9"/>
       <c r="B320" s="1"/>
       <c r="C320" s="8"/>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
       <c r="B321" s="1"/>
       <c r="C321" s="8"/>
       <c r="D321" s="3"/>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="9"/>
       <c r="B322" s="1"/>
       <c r="C322" s="8"/>
       <c r="D322" s="3"/>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
       <c r="B323" s="1"/>
       <c r="C323" s="8"/>
       <c r="D323" s="3"/>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="9"/>
       <c r="B324" s="1"/>
       <c r="C324" s="8"/>
       <c r="D324" s="3"/>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
       <c r="B325" s="1"/>
       <c r="C325" s="8"/>
       <c r="D325" s="3"/>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="9"/>
       <c r="B326" s="1"/>
       <c r="C326" s="8"/>
       <c r="D326" s="3"/>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="9"/>
       <c r="B327" s="1"/>
       <c r="C327" s="8"/>
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
       <c r="B328" s="1"/>
       <c r="C328" s="8"/>
       <c r="D328" s="3"/>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="9"/>
       <c r="B329" s="1"/>
       <c r="C329" s="8"/>
       <c r="D329" s="3"/>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="9"/>
       <c r="B330" s="1"/>
       <c r="C330" s="8"/>
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="9"/>
       <c r="B331" s="1"/>
       <c r="C331" s="8"/>
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
       <c r="B332" s="1"/>
       <c r="C332" s="8"/>
       <c r="D332" s="3"/>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="9"/>
       <c r="B333" s="1"/>
       <c r="C333" s="8"/>
       <c r="D333" s="3"/>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
       <c r="B334" s="1"/>
       <c r="C334" s="8"/>
       <c r="D334" s="3"/>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="9"/>
       <c r="B335" s="1"/>
       <c r="C335" s="8"/>
       <c r="D335" s="3"/>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
       <c r="B336" s="1"/>
       <c r="C336" s="8"/>
       <c r="D336" s="3"/>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="9"/>
       <c r="B337" s="1"/>
       <c r="C337" s="8"/>
       <c r="D337" s="3"/>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="9"/>
       <c r="B338" s="1"/>
       <c r="C338" s="8"/>
       <c r="D338" s="3"/>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="9"/>
       <c r="B339" s="1"/>
       <c r="C339" s="8"/>
       <c r="D339" s="3"/>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="9"/>
       <c r="B340" s="1"/>
       <c r="C340" s="8"/>
       <c r="D340" s="3"/>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
       <c r="B341" s="1"/>
       <c r="C341" s="8"/>
       <c r="D341" s="3"/>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
       <c r="B342" s="1"/>
       <c r="C342" s="8"/>
       <c r="D342" s="3"/>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="9"/>
       <c r="B343" s="1"/>
       <c r="C343" s="8"/>
       <c r="D343" s="3"/>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="9"/>
       <c r="B344" s="1"/>
       <c r="C344" s="8"/>
       <c r="D344" s="3"/>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
       <c r="B345" s="1"/>
       <c r="C345" s="8"/>
       <c r="D345" s="3"/>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="9"/>
       <c r="B346" s="1"/>
       <c r="C346" s="8"/>
       <c r="D346" s="3"/>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
       <c r="B347" s="1"/>
       <c r="C347" s="8"/>
       <c r="D347" s="3"/>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
       <c r="B348" s="1"/>
       <c r="C348" s="8"/>
       <c r="D348" s="3"/>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
       <c r="B349" s="1"/>
       <c r="C349" s="8"/>
       <c r="D349" s="3"/>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="9"/>
       <c r="B350" s="1"/>
       <c r="C350" s="8"/>
       <c r="D350" s="3"/>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="9"/>
       <c r="B351" s="1"/>
       <c r="C351" s="8"/>
       <c r="D351" s="3"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="9"/>
       <c r="B352" s="1"/>
       <c r="C352" s="8"/>
       <c r="D352" s="3"/>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="9"/>
       <c r="B353" s="1"/>
       <c r="C353" s="8"/>
       <c r="D353" s="3"/>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="9"/>
       <c r="B354" s="1"/>
       <c r="C354" s="8"/>
       <c r="D354" s="3"/>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="9"/>
       <c r="B355" s="1"/>
       <c r="C355" s="8"/>
       <c r="D355" s="3"/>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="9"/>
       <c r="B356" s="1"/>
       <c r="C356" s="8"/>
       <c r="D356" s="3"/>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="9"/>
       <c r="B357" s="1"/>
       <c r="C357" s="8"/>
       <c r="D357" s="3"/>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="9"/>
       <c r="B358" s="1"/>
       <c r="C358" s="8"/>
       <c r="D358" s="3"/>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="9"/>
       <c r="B359" s="1"/>
       <c r="C359" s="8"/>
       <c r="D359" s="3"/>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="9"/>
       <c r="B360" s="1"/>
       <c r="C360" s="8"/>
       <c r="D360" s="3"/>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="9"/>
       <c r="B361" s="1"/>
       <c r="C361" s="8"/>
       <c r="D361" s="3"/>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="9"/>
       <c r="B362" s="1"/>
       <c r="C362" s="8"/>
       <c r="D362" s="3"/>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="9"/>
       <c r="B363" s="1"/>
       <c r="C363" s="8"/>
       <c r="D363" s="3"/>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
       <c r="B364" s="1"/>
       <c r="C364" s="8"/>
       <c r="D364" s="3"/>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="9"/>
       <c r="B365" s="1"/>
       <c r="C365" s="8"/>
       <c r="D365" s="3"/>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="9"/>
       <c r="B366" s="1"/>
       <c r="C366" s="8"/>
       <c r="D366" s="3"/>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="9"/>
       <c r="B367" s="1"/>
       <c r="C367" s="8"/>
       <c r="D367" s="3"/>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
       <c r="B368" s="1"/>
       <c r="C368" s="8"/>
       <c r="D368" s="3"/>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
       <c r="B369" s="1"/>
       <c r="C369" s="8"/>
       <c r="D369" s="3"/>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
       <c r="B370" s="1"/>
       <c r="C370" s="8"/>
       <c r="D370" s="3"/>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
       <c r="B371" s="1"/>
       <c r="C371" s="8"/>
       <c r="D371" s="3"/>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
       <c r="B372" s="1"/>
       <c r="C372" s="8"/>
       <c r="D372" s="3"/>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
       <c r="B373" s="1"/>
       <c r="C373" s="8"/>
       <c r="D373" s="3"/>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
       <c r="B374" s="1"/>
       <c r="C374" s="8"/>
       <c r="D374" s="3"/>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="9"/>
       <c r="B375" s="1"/>
       <c r="C375" s="8"/>
       <c r="D375" s="3"/>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="9"/>
       <c r="B376" s="1"/>
       <c r="C376" s="8"/>
       <c r="D376" s="3"/>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="9"/>
       <c r="B377" s="1"/>
       <c r="C377" s="8"/>
       <c r="D377" s="3"/>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="9"/>
       <c r="B378" s="1"/>
       <c r="C378" s="8"/>
       <c r="D378" s="3"/>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="9"/>
       <c r="B379" s="1"/>
       <c r="C379" s="8"/>
       <c r="D379" s="3"/>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="9"/>
       <c r="B380" s="1"/>
       <c r="C380" s="8"/>
       <c r="D380" s="3"/>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="9"/>
       <c r="B381" s="1"/>
       <c r="C381" s="8"/>
       <c r="D381" s="3"/>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="9"/>
       <c r="B382" s="1"/>
       <c r="C382" s="8"/>
       <c r="D382" s="3"/>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
       <c r="B383" s="1"/>
       <c r="C383" s="8"/>
       <c r="D383" s="3"/>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="1"/>
       <c r="C384" s="8"/>
       <c r="D384" s="3"/>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="B385" s="1"/>
       <c r="C385" s="8"/>
       <c r="D385" s="3"/>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="1"/>
       <c r="C386" s="8"/>
       <c r="D386" s="3"/>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="9"/>
       <c r="B387" s="1"/>
       <c r="C387" s="8"/>
       <c r="D387" s="3"/>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="9"/>
       <c r="B388" s="1"/>
       <c r="C388" s="8"/>
       <c r="D388" s="3"/>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
       <c r="B389" s="1"/>
       <c r="C389" s="8"/>
       <c r="D389" s="3"/>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
       <c r="B390" s="1"/>
       <c r="C390" s="8"/>
       <c r="D390" s="3"/>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
       <c r="B391" s="1"/>
       <c r="C391" s="8"/>
       <c r="D391" s="3"/>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
       <c r="B392" s="1"/>
       <c r="C392" s="8"/>
       <c r="D392" s="3"/>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
       <c r="B393" s="1"/>
       <c r="C393" s="8"/>
       <c r="D393" s="3"/>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
       <c r="B394" s="1"/>
       <c r="C394" s="8"/>
       <c r="D394" s="3"/>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
       <c r="B395" s="1"/>
       <c r="C395" s="8"/>
       <c r="D395" s="3"/>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
       <c r="B396" s="1"/>
       <c r="C396" s="8"/>
       <c r="D396" s="3"/>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
       <c r="B397" s="1"/>
       <c r="C397" s="8"/>
       <c r="D397" s="3"/>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
       <c r="B398" s="1"/>
       <c r="C398" s="8"/>
       <c r="D398" s="3"/>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
       <c r="B399" s="1"/>
       <c r="C399" s="8"/>
       <c r="D399" s="3"/>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="9"/>
       <c r="B400" s="1"/>
       <c r="C400" s="8"/>
       <c r="D400" s="3"/>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
       <c r="B401" s="1"/>
       <c r="C401" s="8"/>
       <c r="D401" s="3"/>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="9"/>
       <c r="B402" s="1"/>
       <c r="C402" s="8"/>
       <c r="D402" s="3"/>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="9"/>
       <c r="B403" s="1"/>
       <c r="C403" s="8"/>
       <c r="D403" s="3"/>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="9"/>
       <c r="B404" s="1"/>
       <c r="C404" s="8"/>
       <c r="D404" s="3"/>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="9"/>
       <c r="B405" s="1"/>
       <c r="C405" s="8"/>
       <c r="D405" s="3"/>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="9"/>
       <c r="B406" s="1"/>
       <c r="C406" s="8"/>
       <c r="D406" s="3"/>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="9"/>
       <c r="B407" s="1"/>
       <c r="C407" s="8"/>
       <c r="D407" s="3"/>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="9"/>
       <c r="B408" s="1"/>
       <c r="C408" s="8"/>
       <c r="D408" s="3"/>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="9"/>
       <c r="B409" s="1"/>
       <c r="C409" s="8"/>
       <c r="D409" s="3"/>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="9"/>
       <c r="B410" s="1"/>
       <c r="C410" s="8"/>
       <c r="D410" s="3"/>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="9"/>
       <c r="B411" s="1"/>
       <c r="C411" s="8"/>
       <c r="D411" s="3"/>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="9"/>
       <c r="B412" s="1"/>
       <c r="C412" s="8"/>
       <c r="D412" s="3"/>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="9"/>
       <c r="B413" s="1"/>
       <c r="C413" s="8"/>
       <c r="D413" s="3"/>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="9"/>
       <c r="B414" s="1"/>
       <c r="C414" s="8"/>
       <c r="D414" s="3"/>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="9"/>
       <c r="B415" s="1"/>
       <c r="C415" s="8"/>
       <c r="D415" s="3"/>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="9"/>
       <c r="B416" s="1"/>
       <c r="C416" s="8"/>
       <c r="D416" s="3"/>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="9"/>
       <c r="B417" s="1"/>
       <c r="C417" s="8"/>
       <c r="D417" s="3"/>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="9"/>
       <c r="B418" s="1"/>
       <c r="C418" s="8"/>
       <c r="D418" s="3"/>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="9"/>
       <c r="B419" s="1"/>
       <c r="C419" s="8"/>
       <c r="D419" s="3"/>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="9"/>
       <c r="B420" s="1"/>
       <c r="C420" s="8"/>
       <c r="D420" s="3"/>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="9"/>
       <c r="B421" s="1"/>
       <c r="C421" s="8"/>
       <c r="D421" s="3"/>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="9"/>
       <c r="B422" s="1"/>
       <c r="C422" s="8"/>
       <c r="D422" s="3"/>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="9"/>
       <c r="B423" s="1"/>
       <c r="C423" s="8"/>
       <c r="D423" s="3"/>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="9"/>
       <c r="B424" s="1"/>
       <c r="C424" s="8"/>
       <c r="D424" s="3"/>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="9"/>
       <c r="B425" s="1"/>
       <c r="C425" s="8"/>
       <c r="D425" s="3"/>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="9"/>
       <c r="B426" s="1"/>
       <c r="C426" s="8"/>
       <c r="D426" s="3"/>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="9"/>
       <c r="B427" s="1"/>
       <c r="C427" s="8"/>
       <c r="D427" s="3"/>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="9"/>
       <c r="B428" s="1"/>
       <c r="C428" s="8"/>
       <c r="D428" s="3"/>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="9"/>
       <c r="B429" s="1"/>
       <c r="C429" s="8"/>
       <c r="D429" s="3"/>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
       <c r="B430" s="1"/>
       <c r="C430" s="8"/>
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="9"/>
       <c r="B431" s="1"/>
       <c r="C431" s="8"/>
       <c r="D431" s="3"/>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="9"/>
       <c r="B432" s="1"/>
       <c r="C432" s="8"/>
       <c r="D432" s="3"/>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="9"/>
       <c r="B433" s="1"/>
       <c r="C433" s="8"/>
       <c r="D433" s="3"/>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
       <c r="B434" s="1"/>
       <c r="C434" s="8"/>
       <c r="D434" s="3"/>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
       <c r="B435" s="1"/>
       <c r="C435" s="8"/>
       <c r="D435" s="3"/>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="9"/>
       <c r="B436" s="1"/>
       <c r="C436" s="8"/>
       <c r="D436" s="3"/>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="9"/>
       <c r="B437" s="1"/>
       <c r="C437" s="8"/>
       <c r="D437" s="3"/>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="9"/>
       <c r="B438" s="1"/>
       <c r="C438" s="8"/>
       <c r="D438" s="3"/>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="9"/>
       <c r="B439" s="1"/>
       <c r="C439" s="8"/>
       <c r="D439" s="3"/>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="9"/>
       <c r="B440" s="1"/>
       <c r="C440" s="8"/>
       <c r="D440" s="3"/>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="9"/>
       <c r="B441" s="1"/>
       <c r="C441" s="8"/>
       <c r="D441" s="3"/>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="9"/>
       <c r="B442" s="1"/>
       <c r="C442" s="8"/>
       <c r="D442" s="3"/>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="9"/>
       <c r="B443" s="1"/>
       <c r="C443" s="8"/>
       <c r="D443" s="3"/>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="9"/>
       <c r="B444" s="1"/>
       <c r="C444" s="8"/>
       <c r="D444" s="3"/>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="9"/>
       <c r="B445" s="1"/>
       <c r="C445" s="8"/>
       <c r="D445" s="3"/>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="9"/>
       <c r="B446" s="1"/>
       <c r="C446" s="8"/>
       <c r="D446" s="3"/>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="9"/>
       <c r="B447" s="1"/>
       <c r="C447" s="8"/>
       <c r="D447" s="3"/>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="9"/>
       <c r="B448" s="1"/>
       <c r="C448" s="8"/>
       <c r="D448" s="3"/>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="9"/>
       <c r="B449" s="1"/>
       <c r="C449" s="8"/>
       <c r="D449" s="3"/>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="9"/>
       <c r="B450" s="1"/>
       <c r="C450" s="8"/>
       <c r="D450" s="3"/>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="9"/>
       <c r="B451" s="1"/>
       <c r="C451" s="8"/>
       <c r="D451" s="3"/>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="9"/>
       <c r="B452" s="1"/>
       <c r="C452" s="8"/>
       <c r="D452" s="3"/>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="9"/>
       <c r="B453" s="1"/>
       <c r="C453" s="8"/>
       <c r="D453" s="3"/>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="9"/>
       <c r="B454" s="1"/>
       <c r="C454" s="8"/>
       <c r="D454" s="3"/>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="9"/>
       <c r="B455" s="1"/>
       <c r="C455" s="8"/>
       <c r="D455" s="3"/>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="9"/>
       <c r="B456" s="1"/>
       <c r="C456" s="8"/>
       <c r="D456" s="3"/>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="9"/>
       <c r="B457" s="1"/>
       <c r="C457" s="8"/>
       <c r="D457" s="3"/>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="9"/>
       <c r="B458" s="1"/>
       <c r="C458" s="8"/>
       <c r="D458" s="3"/>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="9"/>
       <c r="B459" s="1"/>
       <c r="C459" s="8"/>
       <c r="D459" s="3"/>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="9"/>
       <c r="B460" s="1"/>
       <c r="C460" s="8"/>
       <c r="D460" s="3"/>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="9"/>
       <c r="B461" s="1"/>
       <c r="C461" s="8"/>
       <c r="D461" s="3"/>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="1"/>
       <c r="C462" s="8"/>
       <c r="D462" s="3"/>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="9"/>
       <c r="B463" s="1"/>
       <c r="C463" s="8"/>
       <c r="D463" s="3"/>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="9"/>
       <c r="B464" s="1"/>
       <c r="C464" s="8"/>
       <c r="D464" s="3"/>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="9"/>
       <c r="B465" s="1"/>
       <c r="C465" s="8"/>
       <c r="D465" s="3"/>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="9"/>
       <c r="B466" s="1"/>
       <c r="C466" s="8"/>
       <c r="D466" s="3"/>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="9"/>
       <c r="B467" s="1"/>
       <c r="C467" s="8"/>
       <c r="D467" s="3"/>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="9"/>
       <c r="B468" s="1"/>
       <c r="C468" s="8"/>
       <c r="D468" s="3"/>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="9"/>
       <c r="B469" s="1"/>
       <c r="C469" s="8"/>
       <c r="D469" s="3"/>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="9"/>
       <c r="B470" s="1"/>
       <c r="C470" s="8"/>
       <c r="D470" s="3"/>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="9"/>
       <c r="B471" s="1"/>
       <c r="C471" s="8"/>
       <c r="D471" s="3"/>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="9"/>
       <c r="B472" s="1"/>
       <c r="C472" s="8"/>
       <c r="D472" s="3"/>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="9"/>
       <c r="B473" s="1"/>
       <c r="C473" s="8"/>
       <c r="D473" s="3"/>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="9"/>
       <c r="B474" s="1"/>
       <c r="C474" s="8"/>
       <c r="D474" s="3"/>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="9"/>
       <c r="B475" s="1"/>
       <c r="C475" s="8"/>
       <c r="D475" s="3"/>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="9"/>
       <c r="B476" s="1"/>
       <c r="C476" s="8"/>
       <c r="D476" s="3"/>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="9"/>
       <c r="B477" s="1"/>
       <c r="C477" s="8"/>
       <c r="D477" s="3"/>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="9"/>
       <c r="B478" s="1"/>
       <c r="C478" s="8"/>
       <c r="D478" s="3"/>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="9"/>
       <c r="B479" s="1"/>
       <c r="C479" s="8"/>
       <c r="D479" s="3"/>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="9"/>
       <c r="B480" s="1"/>
       <c r="C480" s="8"/>
       <c r="D480" s="3"/>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="9"/>
       <c r="B481" s="1"/>
       <c r="C481" s="8"/>
       <c r="D481" s="3"/>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="9"/>
       <c r="B482" s="1"/>
       <c r="C482" s="8"/>
       <c r="D482" s="3"/>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="9"/>
       <c r="B483" s="1"/>
       <c r="C483" s="8"/>
       <c r="D483" s="3"/>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="9"/>
       <c r="B484" s="1"/>
       <c r="C484" s="8"/>
       <c r="D484" s="3"/>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="9"/>
       <c r="B485" s="1"/>
       <c r="C485" s="8"/>
       <c r="D485" s="3"/>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="9"/>
       <c r="B486" s="1"/>
       <c r="C486" s="8"/>
       <c r="D486" s="3"/>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="9"/>
       <c r="B487" s="1"/>
       <c r="C487" s="8"/>
       <c r="D487" s="3"/>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="9"/>
       <c r="B488" s="1"/>
       <c r="C488" s="8"/>
       <c r="D488" s="3"/>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="9"/>
       <c r="B489" s="1"/>
       <c r="C489" s="8"/>
       <c r="D489" s="3"/>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="9"/>
       <c r="B490" s="1"/>
       <c r="C490" s="8"/>
       <c r="D490" s="3"/>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="9"/>
       <c r="B491" s="1"/>
       <c r="C491" s="8"/>
       <c r="D491" s="3"/>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="9"/>
       <c r="B492" s="1"/>
       <c r="C492" s="8"/>
       <c r="D492" s="3"/>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="9"/>
       <c r="B493" s="1"/>
       <c r="C493" s="8"/>
       <c r="D493" s="3"/>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="9"/>
       <c r="B494" s="1"/>
       <c r="C494" s="8"/>
       <c r="D494" s="3"/>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="9"/>
       <c r="B495" s="1"/>
       <c r="C495" s="8"/>
       <c r="D495" s="3"/>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="9"/>
       <c r="B496" s="1"/>
       <c r="C496" s="8"/>
       <c r="D496" s="3"/>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="9"/>
       <c r="B497" s="1"/>
       <c r="C497" s="8"/>
       <c r="D497" s="3"/>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="9"/>
       <c r="B498" s="1"/>
       <c r="C498" s="8"/>
       <c r="D498" s="3"/>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="9"/>
       <c r="B499" s="1"/>
       <c r="C499" s="8"/>
       <c r="D499" s="3"/>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="9"/>
       <c r="B500" s="1"/>
       <c r="C500" s="8"/>
       <c r="D500" s="3"/>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="9"/>
       <c r="B501" s="1"/>
       <c r="C501" s="8"/>
       <c r="D501" s="3"/>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="9"/>
       <c r="B502" s="1"/>
       <c r="C502" s="8"/>
       <c r="D502" s="3"/>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="9"/>
       <c r="B503" s="1"/>
       <c r="C503" s="8"/>
       <c r="D503" s="3"/>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="9"/>
       <c r="B504" s="1"/>
       <c r="C504" s="8"/>
       <c r="D504" s="3"/>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="9"/>
       <c r="B505" s="1"/>
       <c r="C505" s="8"/>
       <c r="D505" s="3"/>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="9"/>
       <c r="B506" s="1"/>
       <c r="C506" s="8"/>
       <c r="D506" s="3"/>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="9"/>
       <c r="B507" s="1"/>
       <c r="C507" s="8"/>
       <c r="D507" s="3"/>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="9"/>
       <c r="B508" s="1"/>
       <c r="C508" s="8"/>
       <c r="D508" s="3"/>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="9"/>
       <c r="B509" s="1"/>
       <c r="C509" s="8"/>
       <c r="D509" s="3"/>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="9"/>
       <c r="B510" s="1"/>
       <c r="C510" s="8"/>
       <c r="D510" s="3"/>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="9"/>
       <c r="B511" s="1"/>
       <c r="C511" s="8"/>
       <c r="D511" s="3"/>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="9"/>
       <c r="B512" s="1"/>
       <c r="C512" s="8"/>
       <c r="D512" s="3"/>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="9"/>
       <c r="B513" s="1"/>
       <c r="C513" s="8"/>
       <c r="D513" s="3"/>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="9"/>
       <c r="B514" s="1"/>
       <c r="C514" s="8"/>
       <c r="D514" s="3"/>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="9"/>
       <c r="B515" s="1"/>
       <c r="C515" s="8"/>
       <c r="D515" s="3"/>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="9"/>
       <c r="B516" s="1"/>
       <c r="C516" s="8"/>
       <c r="D516" s="3"/>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="9"/>
       <c r="B517" s="1"/>
       <c r="C517" s="8"/>
       <c r="D517" s="3"/>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="9"/>
       <c r="B518" s="1"/>
       <c r="C518" s="8"/>
       <c r="D518" s="3"/>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="9"/>
       <c r="B519" s="1"/>
       <c r="C519" s="8"/>
       <c r="D519" s="3"/>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="9"/>
       <c r="B520" s="1"/>
       <c r="C520" s="8"/>
       <c r="D520" s="3"/>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="9"/>
       <c r="B521" s="1"/>
       <c r="C521" s="8"/>
       <c r="D521" s="3"/>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="9"/>
       <c r="B522" s="1"/>
       <c r="C522" s="8"/>
       <c r="D522" s="3"/>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="9"/>
       <c r="B523" s="1"/>
       <c r="C523" s="8"/>
       <c r="D523" s="3"/>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="9"/>
       <c r="B524" s="1"/>
       <c r="C524" s="8"/>
       <c r="D524" s="3"/>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="9"/>
       <c r="B525" s="1"/>
       <c r="C525" s="8"/>
       <c r="D525" s="3"/>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="9"/>
       <c r="B526" s="1"/>
       <c r="C526" s="8"/>
       <c r="D526" s="3"/>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="9"/>
       <c r="B527" s="1"/>
       <c r="C527" s="8"/>
       <c r="D527" s="3"/>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="9"/>
       <c r="B528" s="1"/>
       <c r="C528" s="8"/>
       <c r="D528" s="3"/>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="9"/>
       <c r="B529" s="1"/>
       <c r="C529" s="8"/>
       <c r="D529" s="3"/>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="9"/>
       <c r="B530" s="1"/>
       <c r="C530" s="8"/>
       <c r="D530" s="3"/>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="9"/>
       <c r="B531" s="1"/>
       <c r="C531" s="8"/>
       <c r="D531" s="3"/>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="9"/>
       <c r="B532" s="1"/>
       <c r="C532" s="8"/>
       <c r="D532" s="3"/>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="9"/>
       <c r="B533" s="1"/>
       <c r="C533" s="8"/>
       <c r="D533" s="3"/>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="9"/>
       <c r="B534" s="1"/>
       <c r="C534" s="8"/>
       <c r="D534" s="3"/>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="9"/>
       <c r="B535" s="1"/>
       <c r="C535" s="8"/>
       <c r="D535" s="3"/>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="9"/>
       <c r="B536" s="1"/>
       <c r="C536" s="8"/>
       <c r="D536" s="3"/>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="9"/>
       <c r="B537" s="1"/>
       <c r="C537" s="8"/>
       <c r="D537" s="3"/>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="9"/>
       <c r="B538" s="1"/>
       <c r="C538" s="8"/>
       <c r="D538" s="3"/>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="9"/>
       <c r="B539" s="1"/>
       <c r="C539" s="8"/>
       <c r="D539" s="3"/>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="9"/>
       <c r="B540" s="1"/>
       <c r="C540" s="8"/>
       <c r="D540" s="3"/>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="9"/>
       <c r="B541" s="1"/>
       <c r="C541" s="8"/>
       <c r="D541" s="3"/>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="9"/>
       <c r="B542" s="1"/>
       <c r="C542" s="8"/>
       <c r="D542" s="3"/>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="9"/>
       <c r="B543" s="1"/>
       <c r="C543" s="8"/>
       <c r="D543" s="3"/>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="9"/>
       <c r="B544" s="1"/>
       <c r="C544" s="8"/>
       <c r="D544" s="3"/>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="9"/>
       <c r="B545" s="1"/>
       <c r="C545" s="8"/>
       <c r="D545" s="3"/>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="9"/>
       <c r="B546" s="1"/>
       <c r="C546" s="8"/>
       <c r="D546" s="3"/>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="9"/>
       <c r="B547" s="1"/>
       <c r="C547" s="8"/>
       <c r="D547" s="3"/>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="9"/>
       <c r="B548" s="1"/>
       <c r="C548" s="8"/>
       <c r="D548" s="3"/>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="9"/>
       <c r="B549" s="1"/>
       <c r="C549" s="8"/>
       <c r="D549" s="3"/>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="9"/>
       <c r="B550" s="1"/>
       <c r="C550" s="8"/>
       <c r="D550" s="3"/>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="9"/>
       <c r="B551" s="1"/>
       <c r="C551" s="8"/>
       <c r="D551" s="3"/>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="9"/>
       <c r="B552" s="1"/>
       <c r="C552" s="8"/>
       <c r="D552" s="3"/>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="9"/>
       <c r="B553" s="1"/>
       <c r="C553" s="8"/>
       <c r="D553" s="3"/>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="9"/>
       <c r="B554" s="1"/>
       <c r="C554" s="8"/>
       <c r="D554" s="3"/>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="9"/>
       <c r="B555" s="1"/>
       <c r="C555" s="8"/>
       <c r="D555" s="3"/>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="9"/>
       <c r="B556" s="1"/>
       <c r="C556" s="8"/>
       <c r="D556" s="3"/>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="9"/>
       <c r="B557" s="1"/>
       <c r="C557" s="8"/>
       <c r="D557" s="3"/>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="9"/>
       <c r="B558" s="1"/>
       <c r="C558" s="8"/>
       <c r="D558" s="3"/>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="9"/>
       <c r="B559" s="1"/>
       <c r="C559" s="8"/>
       <c r="D559" s="3"/>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="9"/>
       <c r="B560" s="1"/>
       <c r="C560" s="8"/>
       <c r="D560" s="3"/>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="9"/>
       <c r="B561" s="1"/>
       <c r="C561" s="8"/>
       <c r="D561" s="3"/>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="9"/>
       <c r="B562" s="1"/>
       <c r="C562" s="8"/>
       <c r="D562" s="3"/>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="9"/>
       <c r="B563" s="1"/>
       <c r="C563" s="8"/>
       <c r="D563" s="3"/>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="9"/>
       <c r="B564" s="1"/>
       <c r="C564" s="8"/>
       <c r="D564" s="3"/>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="9"/>
       <c r="B565" s="1"/>
       <c r="C565" s="8"/>
       <c r="D565" s="3"/>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="9"/>
       <c r="B566" s="1"/>
       <c r="C566" s="8"/>
       <c r="D566" s="3"/>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="9"/>
       <c r="B567" s="1"/>
       <c r="C567" s="8"/>
       <c r="D567" s="3"/>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="9"/>
       <c r="B568" s="1"/>
       <c r="C568" s="8"/>
       <c r="D568" s="3"/>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="9"/>
       <c r="B569" s="1"/>
       <c r="C569" s="8"/>
       <c r="D569" s="3"/>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="9"/>
       <c r="B570" s="1"/>
       <c r="C570" s="8"/>
       <c r="D570" s="3"/>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="9"/>
       <c r="B571" s="1"/>
       <c r="C571" s="8"/>
       <c r="D571" s="3"/>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="9"/>
       <c r="B572" s="1"/>
       <c r="C572" s="8"/>
       <c r="D572" s="3"/>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="9"/>
       <c r="B573" s="1"/>
       <c r="C573" s="8"/>
       <c r="D573" s="3"/>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="9"/>
       <c r="B574" s="1"/>
       <c r="C574" s="8"/>
       <c r="D574" s="3"/>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="9"/>
       <c r="B575" s="1"/>
       <c r="C575" s="8"/>
       <c r="D575" s="3"/>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="9"/>
       <c r="B576" s="1"/>
       <c r="C576" s="8"/>
       <c r="D576" s="3"/>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="9"/>
       <c r="B577" s="1"/>
       <c r="C577" s="8"/>
       <c r="D577" s="3"/>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="9"/>
       <c r="B578" s="1"/>
       <c r="C578" s="8"/>
       <c r="D578" s="3"/>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="9"/>
       <c r="B579" s="1"/>
       <c r="C579" s="8"/>
       <c r="D579" s="3"/>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="9"/>
       <c r="B580" s="1"/>
       <c r="C580" s="8"/>
       <c r="D580" s="3"/>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="9"/>
       <c r="B581" s="1"/>
       <c r="C581" s="8"/>
       <c r="D581" s="3"/>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="9"/>
       <c r="B582" s="1"/>
       <c r="C582" s="8"/>
       <c r="D582" s="3"/>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="9"/>
       <c r="B583" s="1"/>
       <c r="C583" s="8"/>
       <c r="D583" s="3"/>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="9"/>
       <c r="B584" s="1"/>
       <c r="C584" s="8"/>
       <c r="D584" s="3"/>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="9"/>
       <c r="B585" s="1"/>
       <c r="C585" s="8"/>
       <c r="D585" s="3"/>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="9"/>
       <c r="B586" s="1"/>
       <c r="C586" s="8"/>
       <c r="D586" s="3"/>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="9"/>
       <c r="B587" s="1"/>
       <c r="C587" s="8"/>
       <c r="D587" s="3"/>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="9"/>
       <c r="B588" s="1"/>
       <c r="C588" s="8"/>
       <c r="D588" s="3"/>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="9"/>
       <c r="B589" s="1"/>
       <c r="C589" s="8"/>
       <c r="D589" s="3"/>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="9"/>
       <c r="B590" s="1"/>
       <c r="C590" s="8"/>
       <c r="D590" s="3"/>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="9"/>
       <c r="B591" s="1"/>
       <c r="C591" s="8"/>
       <c r="D591" s="3"/>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="9"/>
       <c r="B592" s="1"/>
       <c r="C592" s="8"/>
       <c r="D592" s="3"/>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="9"/>
       <c r="B593" s="1"/>
       <c r="C593" s="8"/>
       <c r="D593" s="3"/>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="9"/>
       <c r="B594" s="1"/>
       <c r="C594" s="8"/>
       <c r="D594" s="3"/>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="9"/>
       <c r="B595" s="1"/>
       <c r="C595" s="8"/>
       <c r="D595" s="3"/>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="9"/>
       <c r="B596" s="1"/>
       <c r="C596" s="8"/>
       <c r="D596" s="3"/>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="9"/>
       <c r="B597" s="1"/>
       <c r="C597" s="8"/>
       <c r="D597" s="3"/>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="9"/>
       <c r="B598" s="1"/>
       <c r="C598" s="8"/>
       <c r="D598" s="3"/>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="9"/>
       <c r="B599" s="1"/>
       <c r="C599" s="8"/>
       <c r="D599" s="3"/>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="9"/>
       <c r="B600" s="1"/>
       <c r="C600" s="8"/>
       <c r="D600" s="3"/>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="9"/>
       <c r="B601" s="1"/>
       <c r="C601" s="8"/>
       <c r="D601" s="3"/>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="9"/>
       <c r="B602" s="1"/>
       <c r="C602" s="8"/>
       <c r="D602" s="3"/>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="9"/>
       <c r="B603" s="1"/>
       <c r="C603" s="8"/>
       <c r="D603" s="3"/>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="9"/>
       <c r="B604" s="1"/>
       <c r="C604" s="8"/>
       <c r="D604" s="3"/>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="9"/>
       <c r="B605" s="1"/>
       <c r="C605" s="8"/>
       <c r="D605" s="3"/>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="9"/>
       <c r="B606" s="1"/>
       <c r="C606" s="8"/>
       <c r="D606" s="3"/>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="9"/>
       <c r="B607" s="1"/>
       <c r="C607" s="8"/>
       <c r="D607" s="3"/>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="9"/>
       <c r="B608" s="1"/>
       <c r="C608" s="8"/>
       <c r="D608" s="3"/>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="9"/>
       <c r="B609" s="1"/>
       <c r="C609" s="8"/>
       <c r="D609" s="3"/>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="9"/>
       <c r="B610" s="1"/>
       <c r="C610" s="8"/>
       <c r="D610" s="3"/>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="9"/>
       <c r="B611" s="1"/>
       <c r="C611" s="8"/>
       <c r="D611" s="3"/>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="9"/>
       <c r="B612" s="1"/>
       <c r="C612" s="8"/>
       <c r="D612" s="3"/>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="9"/>
       <c r="B613" s="1"/>
       <c r="C613" s="8"/>
       <c r="D613" s="3"/>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="9"/>
       <c r="B614" s="1"/>
       <c r="C614" s="8"/>
       <c r="D614" s="3"/>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="9"/>
       <c r="B615" s="1"/>
       <c r="C615" s="8"/>
       <c r="D615" s="3"/>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="9"/>
       <c r="B616" s="1"/>
       <c r="C616" s="8"/>
       <c r="D616" s="3"/>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="9"/>
       <c r="B617" s="1"/>
       <c r="C617" s="8"/>
       <c r="D617" s="3"/>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="9"/>
       <c r="B618" s="1"/>
       <c r="C618" s="8"/>
       <c r="D618" s="3"/>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="9"/>
       <c r="B619" s="1"/>
       <c r="C619" s="8"/>
       <c r="D619" s="3"/>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="9"/>
       <c r="B620" s="1"/>
       <c r="C620" s="8"/>
       <c r="D620" s="3"/>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="9"/>
       <c r="B621" s="1"/>
       <c r="C621" s="8"/>
       <c r="D621" s="3"/>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="9"/>
       <c r="B622" s="1"/>
       <c r="C622" s="8"/>
       <c r="D622" s="3"/>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="9"/>
       <c r="B623" s="1"/>
       <c r="C623" s="8"/>
       <c r="D623" s="3"/>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="9"/>
       <c r="B624" s="1"/>
       <c r="C624" s="8"/>
       <c r="D624" s="3"/>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="9"/>
       <c r="B625" s="1"/>
       <c r="C625" s="8"/>
       <c r="D625" s="3"/>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="9"/>
       <c r="B626" s="1"/>
       <c r="C626" s="8"/>
       <c r="D626" s="3"/>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="9"/>
       <c r="B627" s="1"/>
       <c r="C627" s="8"/>
       <c r="D627" s="3"/>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="9"/>
       <c r="B628" s="1"/>
       <c r="C628" s="8"/>
       <c r="D628" s="3"/>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="9"/>
       <c r="B629" s="1"/>
       <c r="C629" s="8"/>
       <c r="D629" s="3"/>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="9"/>
       <c r="B630" s="1"/>
       <c r="C630" s="8"/>
       <c r="D630" s="3"/>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="9"/>
       <c r="B631" s="1"/>
       <c r="C631" s="8"/>
       <c r="D631" s="3"/>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="9"/>
       <c r="B632" s="1"/>
       <c r="C632" s="8"/>
       <c r="D632" s="3"/>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="9"/>
       <c r="B633" s="1"/>
       <c r="C633" s="8"/>
       <c r="D633" s="3"/>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="9"/>
       <c r="B634" s="1"/>
       <c r="C634" s="8"/>
       <c r="D634" s="3"/>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="9"/>
       <c r="B635" s="1"/>
       <c r="C635" s="8"/>
       <c r="D635" s="3"/>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="9"/>
       <c r="B636" s="1"/>
       <c r="C636" s="8"/>
       <c r="D636" s="3"/>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="9"/>
       <c r="B637" s="1"/>
       <c r="C637" s="8"/>
       <c r="D637" s="3"/>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="9"/>
       <c r="B638" s="1"/>
       <c r="C638" s="8"/>
       <c r="D638" s="3"/>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="9"/>
       <c r="B639" s="1"/>
       <c r="C639" s="8"/>
       <c r="D639" s="3"/>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="9"/>
       <c r="B640" s="1"/>
       <c r="C640" s="8"/>
       <c r="D640" s="3"/>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="9"/>
       <c r="B641" s="1"/>
       <c r="C641" s="8"/>
       <c r="D641" s="3"/>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="9"/>
       <c r="B642" s="1"/>
       <c r="C642" s="8"/>
       <c r="D642" s="3"/>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="9"/>
       <c r="B643" s="1"/>
       <c r="C643" s="8"/>
       <c r="D643" s="3"/>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="9"/>
       <c r="B644" s="1"/>
       <c r="C644" s="8"/>
       <c r="D644" s="3"/>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="9"/>
       <c r="B645" s="1"/>
       <c r="C645" s="8"/>
       <c r="D645" s="3"/>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="9"/>
       <c r="B646" s="1"/>
       <c r="C646" s="8"/>
       <c r="D646" s="3"/>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="9"/>
       <c r="B647" s="1"/>
       <c r="C647" s="8"/>
       <c r="D647" s="3"/>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="9"/>
       <c r="B648" s="1"/>
       <c r="C648" s="8"/>
       <c r="D648" s="3"/>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="9"/>
       <c r="B649" s="1"/>
       <c r="C649" s="8"/>
       <c r="D649" s="3"/>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="9"/>
       <c r="B650" s="1"/>
       <c r="C650" s="8"/>
       <c r="D650" s="3"/>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="9"/>
       <c r="B651" s="1"/>
       <c r="C651" s="8"/>
       <c r="D651" s="3"/>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="9"/>
       <c r="B652" s="1"/>
       <c r="C652" s="8"/>
       <c r="D652" s="3"/>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="9"/>
       <c r="B653" s="1"/>
       <c r="C653" s="8"/>
       <c r="D653" s="3"/>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="9"/>
       <c r="B654" s="1"/>
       <c r="C654" s="8"/>
       <c r="D654" s="3"/>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="9"/>
       <c r="B655" s="1"/>
       <c r="C655" s="8"/>
       <c r="D655" s="3"/>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="9"/>
       <c r="B656" s="1"/>
       <c r="C656" s="8"/>
       <c r="D656" s="3"/>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="9"/>
       <c r="B657" s="1"/>
       <c r="C657" s="8"/>
       <c r="D657" s="3"/>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="9"/>
       <c r="B658" s="1"/>
       <c r="C658" s="8"/>
       <c r="D658" s="3"/>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="9"/>
       <c r="B659" s="1"/>
       <c r="C659" s="8"/>
       <c r="D659" s="3"/>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="9"/>
       <c r="B660" s="1"/>
       <c r="C660" s="8"/>
       <c r="D660" s="3"/>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="9"/>
       <c r="B661" s="1"/>
       <c r="C661" s="8"/>
       <c r="D661" s="3"/>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="9"/>
       <c r="B662" s="1"/>
       <c r="C662" s="8"/>
       <c r="D662" s="3"/>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="9"/>
       <c r="B663" s="1"/>
       <c r="C663" s="8"/>
       <c r="D663" s="3"/>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="9"/>
       <c r="B664" s="1"/>
       <c r="C664" s="8"/>
       <c r="D664" s="3"/>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="9"/>
       <c r="B665" s="1"/>
       <c r="C665" s="8"/>
       <c r="D665" s="3"/>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="9"/>
       <c r="B666" s="1"/>
       <c r="C666" s="8"/>
       <c r="D666" s="3"/>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="9"/>
       <c r="B667" s="1"/>
       <c r="C667" s="8"/>
       <c r="D667" s="3"/>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="9"/>
       <c r="B668" s="1"/>
       <c r="C668" s="8"/>
       <c r="D668" s="3"/>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="9"/>
       <c r="B669" s="1"/>
       <c r="C669" s="8"/>
       <c r="D669" s="3"/>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="9"/>
       <c r="B670" s="1"/>
       <c r="C670" s="8"/>
       <c r="D670" s="3"/>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="9"/>
       <c r="B671" s="1"/>
       <c r="C671" s="8"/>
       <c r="D671" s="3"/>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="9"/>
       <c r="B672" s="1"/>
       <c r="C672" s="8"/>
       <c r="D672" s="3"/>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="9"/>
       <c r="B673" s="1"/>
       <c r="C673" s="8"/>
       <c r="D673" s="3"/>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="9"/>
       <c r="B674" s="1"/>
       <c r="C674" s="8"/>
       <c r="D674" s="3"/>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="9"/>
       <c r="B675" s="1"/>
       <c r="C675" s="8"/>
       <c r="D675" s="3"/>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="9"/>
       <c r="B676" s="1"/>
       <c r="C676" s="8"/>
       <c r="D676" s="3"/>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="9"/>
       <c r="B677" s="1"/>
       <c r="C677" s="8"/>
       <c r="D677" s="3"/>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="9"/>
       <c r="B678" s="1"/>
       <c r="C678" s="8"/>
       <c r="D678" s="3"/>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="9"/>
       <c r="B679" s="1"/>
       <c r="C679" s="8"/>
       <c r="D679" s="3"/>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="9"/>
       <c r="B680" s="1"/>
       <c r="C680" s="8"/>
       <c r="D680" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D680" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:D680" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <dateGroupItem year="2019" month="4" dateTimeGrouping="month"/>
+        <dateGroupItem year="2019" month="5" day="1" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="5" day="2" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:N17">
     <sortCondition ref="M2:M17"/>
     <sortCondition ref="K2:K17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F64CA1-7B6B-4CD5-A475-70CFD308B404}">
+  <dimension ref="A1:X70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>43585</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>-3</v>
+      </c>
+      <c r="D2">
+        <v>2359</v>
+      </c>
+      <c r="E2">
+        <v>43585</v>
+      </c>
+      <c r="F2">
+        <v>2359</v>
+      </c>
+      <c r="G2" t="b">
+        <f>E2=A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>D2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>43587</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>-4</v>
+      </c>
+      <c r="D3">
+        <v>2363</v>
+      </c>
+      <c r="E3">
+        <v>43587</v>
+      </c>
+      <c r="F3">
+        <v>2374</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G10" si="0">E3=A3</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>D3-F3</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>43588</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2387</v>
+      </c>
+      <c r="E4">
+        <v>43588</v>
+      </c>
+      <c r="F4">
+        <v>2379</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>D4-F4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>43592</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>2298</v>
+      </c>
+      <c r="E5">
+        <v>43592</v>
+      </c>
+      <c r="F5">
+        <v>2301</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="1">D5-F5</f>
+        <v>-3</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="27"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>43593</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>2318.6</v>
+      </c>
+      <c r="E6">
+        <v>43593</v>
+      </c>
+      <c r="F6">
+        <v>2305</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>13.599999999999909</v>
+      </c>
+      <c r="K6" s="24">
+        <v>43585</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="23">
+        <v>-3</v>
+      </c>
+      <c r="N6" s="23">
+        <v>2359</v>
+      </c>
+      <c r="P6" s="25">
+        <v>2359</v>
+      </c>
+      <c r="Q6" s="23">
+        <f t="shared" ref="Q6:Q7" si="2">N6-P6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>10</v>
+      </c>
+      <c r="S6" s="23">
+        <f>Q6*R6*M6*IF(M6&lt;0,-1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="23">
+        <v>2379</v>
+      </c>
+      <c r="V6" s="23">
+        <f>N6-U6</f>
+        <v>-20</v>
+      </c>
+      <c r="W6" s="23">
+        <f>V6*R6*M6*IF(M6&lt;0,-1,1)</f>
+        <v>-600</v>
+      </c>
+      <c r="X6" s="23">
+        <f>W6</f>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>43595</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2309</v>
+      </c>
+      <c r="E7">
+        <v>43595</v>
+      </c>
+      <c r="F7">
+        <v>2312</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="K7" s="24">
+        <v>43587</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="23">
+        <v>-4</v>
+      </c>
+      <c r="N7" s="23">
+        <v>2363</v>
+      </c>
+      <c r="P7" s="26">
+        <v>2374</v>
+      </c>
+      <c r="Q7" s="23">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="R7" s="23">
+        <v>10</v>
+      </c>
+      <c r="S7" s="23">
+        <f>Q7*R7*M7*IF(M7&lt;0,-1,1)</f>
+        <v>-440</v>
+      </c>
+      <c r="U7" s="23">
+        <v>2379</v>
+      </c>
+      <c r="V7" s="23">
+        <f t="shared" ref="V7:V8" si="3">N7-U7</f>
+        <v>-16</v>
+      </c>
+      <c r="W7" s="23">
+        <f>V7*R7*M7*IF(M7&lt;0,-1,1)</f>
+        <v>-640</v>
+      </c>
+      <c r="X7" s="23">
+        <f>X6+W7</f>
+        <v>-1240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43601</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2354</v>
+      </c>
+      <c r="E8">
+        <v>43601</v>
+      </c>
+      <c r="F8">
+        <v>2372</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="K8" s="24">
+        <v>43588</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="23">
+        <v>2</v>
+      </c>
+      <c r="N8" s="23">
+        <v>2387</v>
+      </c>
+      <c r="P8" s="23">
+        <v>2379</v>
+      </c>
+      <c r="Q8" s="23">
+        <f>N8-P8</f>
+        <v>8</v>
+      </c>
+      <c r="R8" s="23">
+        <v>10</v>
+      </c>
+      <c r="S8" s="23">
+        <f>Q8*R8*M8*IF(M8&lt;0,-1,1)</f>
+        <v>160</v>
+      </c>
+      <c r="U8" s="23">
+        <v>2379</v>
+      </c>
+      <c r="V8" s="23">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="W8" s="23">
+        <f>V8*R8*M8*IF(M8&lt;0,-1,1)</f>
+        <v>160</v>
+      </c>
+      <c r="X8" s="23">
+        <f>X7+W8</f>
+        <v>-1080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>43602</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2358.7143000000001</v>
+      </c>
+      <c r="E9">
+        <v>43602</v>
+      </c>
+      <c r="F9">
+        <v>2353</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>5.7143000000000939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>43606</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2395</v>
+      </c>
+      <c r="E10">
+        <v>43606</v>
+      </c>
+      <c r="F10">
+        <v>2446</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>43585</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>43586</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>43587</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>43588</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>43591</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>43592</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>43593</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>43594</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>43595</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>43598</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>43599</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>43600</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>43601</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>43602</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>43605</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>43606</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>43607</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>43608</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
+        <v>43609</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>43612</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>43613</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>43614</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>43615</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>43616</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>43619</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>43620</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>43621</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>43622</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
+        <v>43623</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>43626</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>43627</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>43628</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>43629</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
+        <v>43630</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <v>43633</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>43634</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="10">
+        <v>43635</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>43636</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>43637</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>43640</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>43641</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
+        <v>43642</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>43643</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>43644</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10">
+        <v>43647</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
+        <v>43648</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="10">
+        <v>43649</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10">
+        <v>43650</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="10">
+        <v>43651</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="10">
+        <v>43654</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10">
+        <v>43655</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10">
+        <v>43656</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="10">
+        <v>43657</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="10">
+        <v>43658</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="10">
+        <v>43661</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>2445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>